--- a/results/MLP_parallel/s_MLP_parallel_data_insilico_seed_25_2025-02-08_PH_60/output.xlsx
+++ b/results/MLP_parallel/s_MLP_parallel_data_insilico_seed_25_2025-02-08_PH_60/output.xlsx
@@ -511,25 +511,25 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.03983555</t>
+          <t>0.07378995</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.14327374</t>
+          <t>0.16836306</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E3" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -571,12 +571,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.14680563</t>
+          <t>0.15078978</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.29538462</t>
+          <t>0.2989677</t>
         </is>
       </c>
       <c r="D5" t="n">
